--- a/formatted/candidates/candidates-3/documents/candidates-documents-stcw.xlsx
+++ b/formatted/candidates/candidates-3/documents/candidates-documents-stcw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-3/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476B7B2-6B9B-D549-B4C8-BA14DF24B3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608A136-050F-9048-9548-FAC803226376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="56400" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50852,7 +50852,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2274" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
